--- a/STUDENT ATTENDANCE.xlsx
+++ b/STUDENT ATTENDANCE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80337585-5CB0-4E7F-B6D8-9F7C4FCECFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C399FB-6CDF-4104-9972-A8C09F7B2294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69CDB955-A7CF-49C7-845E-4438A7C7CE9C}"/>
   </bookViews>
@@ -35,40 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
-  <si>
-    <t>GPS P JAMMUVALASA - 28120207101</t>
-  </si>
-  <si>
-    <t>GPS RELLA - 28120201501</t>
-  </si>
-  <si>
-    <t>GPSTW ADJ BHADRA - 28120200201</t>
-  </si>
-  <si>
-    <t>GPSTW GUNADA - 28120201101</t>
-  </si>
-  <si>
-    <t>GTWAS KOTHAGUDA - 28120201803</t>
-  </si>
-  <si>
-    <t>MPPS KAPPAKALLU - 28120200104</t>
-  </si>
-  <si>
-    <t>MPPS GORADA - 28120210001</t>
-  </si>
-  <si>
-    <t>MPPS IJJAKAI - 28120205401</t>
-  </si>
-  <si>
-    <t>MPPS JARNA - 28120209201</t>
-  </si>
-  <si>
-    <t>MPPS KONDAKUNERU - 28120211801</t>
-  </si>
-  <si>
-    <t>MPPS Y CHORUPALLI - 28120209301</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>SL.NO</t>
   </si>
@@ -79,14 +46,32 @@
     <t>ROLL</t>
   </si>
   <si>
-    <t>STUDENT ATTENDANCE NOT MARKED @ 10 AM</t>
+    <t>APTWRSBOYS BHADRAGIRI - 28120207506</t>
+  </si>
+  <si>
+    <t>GPSTW CH J BHADRA - 28120202501</t>
+  </si>
+  <si>
+    <t>GPSTW KOTHAVALASA - 28120212107</t>
+  </si>
+  <si>
+    <t>GTWASGIRLS P AMITI - 28120210205</t>
+  </si>
+  <si>
+    <t>MPPS GADDI COL GLPURAM - 28120207601</t>
+  </si>
+  <si>
+    <t>MPPS SAMBUGUDA - 28120208501</t>
+  </si>
+  <si>
+    <t>STUDENT ATTENDANCE NOT MARKED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +108,15 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="20"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -207,14 +199,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,156 +522,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A0E20E-40C3-43BC-A6B9-601FF420697A}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="3" max="3" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="2:4" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D4" s="6">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+      <c r="D5" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+      <c r="D9" s="6">
         <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -693,23 +631,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8229443-671B-4CC8-ABB2-97C0EC9FEDE4}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C11"/>
+      <selection activeCell="C6" sqref="B1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2">
-        <v>43</v>
+        <v>445</v>
       </c>
       <c r="D1" s="2">
         <v>0</v>
@@ -736,15 +674,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -771,15 +709,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -808,13 +746,13 @@
     </row>
     <row r="4" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -841,15 +779,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>427</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -876,205 +814,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>133</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>135</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>137</v>
-      </c>
-      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
-        <v>48</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>143</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C6" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>169</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/STUDENT ATTENDANCE.xlsx
+++ b/STUDENT ATTENDANCE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C399FB-6CDF-4104-9972-A8C09F7B2294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C43CC77-84D7-40CA-903F-C4C2E34E6795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69CDB955-A7CF-49C7-845E-4438A7C7CE9C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>SL.NO</t>
   </si>
@@ -46,18 +46,6 @@
     <t>ROLL</t>
   </si>
   <si>
-    <t>APTWRSBOYS BHADRAGIRI - 28120207506</t>
-  </si>
-  <si>
-    <t>GPSTW CH J BHADRA - 28120202501</t>
-  </si>
-  <si>
-    <t>GPSTW KOTHAVALASA - 28120212107</t>
-  </si>
-  <si>
-    <t>GTWASGIRLS P AMITI - 28120210205</t>
-  </si>
-  <si>
     <t>MPPS GADDI COL GLPURAM - 28120207601</t>
   </si>
   <si>
@@ -65,13 +53,43 @@
   </si>
   <si>
     <t>STUDENT ATTENDANCE NOT MARKED</t>
+  </si>
+  <si>
+    <t>GPS KEESARI - 28120200701</t>
+  </si>
+  <si>
+    <t>GPS THOLUKHARJA - 28120203901</t>
+  </si>
+  <si>
+    <t>GPS TW KITHALAMBA - 28120205701</t>
+  </si>
+  <si>
+    <t>GPSTW GOWDUGUDA - 28120204001</t>
+  </si>
+  <si>
+    <t>GPSTW P AMITI COL - 28120210203</t>
+  </si>
+  <si>
+    <t>GPSTW KUDDA - 28120207901</t>
+  </si>
+  <si>
+    <t>GPSTW TIKKABAI - 28120200402</t>
+  </si>
+  <si>
+    <t>MPPS ATCHABA - 28120209602</t>
+  </si>
+  <si>
+    <t>MPPS JARNA - 28120209201</t>
+  </si>
+  <si>
+    <t>MPPS KONDAVADA - 28120206801</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +126,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
@@ -149,23 +160,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD5D5D5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD5D5D5"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -183,30 +183,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD5D5D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD5D5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A0E20E-40C3-43BC-A6B9-601FF420697A}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,86 +567,152 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:4" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="2:4" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D7" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="D15" s="7">
         <v>9</v>
       </c>
     </row>
@@ -631,210 +727,424 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8229443-671B-4CC8-ABB2-97C0EC9FEDE4}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="B1:C6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+    <row r="1" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5">
+        <v>56</v>
+      </c>
+      <c r="D1" s="5">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5">
+        <v>0</v>
+      </c>
+      <c r="H1" s="5">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C3" s="5">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>55</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>59</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>81</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>99</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>117</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>131</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2">
-        <v>445</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>137</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>144</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>157</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>80</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>112</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>433</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>131</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>157</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="C12" s="5">
         <v>9</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/STUDENT ATTENDANCE.xlsx
+++ b/STUDENT ATTENDANCE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3AFDEC-9B76-4AD9-B20C-00B501BC792A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBBC508-664B-4236-8E92-8867FCF25DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15780" yWindow="0" windowWidth="12030" windowHeight="15480" xr2:uid="{69CDB955-A7CF-49C7-845E-4438A7C7CE9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69CDB955-A7CF-49C7-845E-4438A7C7CE9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>SL.NO</t>
   </si>
@@ -80,6 +80,60 @@
   </si>
   <si>
     <t>ZPHS GLPURAM - 28120207604</t>
+  </si>
+  <si>
+    <t>AIDED P S CHEMUDUGUDA - 28120203401</t>
+  </si>
+  <si>
+    <t>AIDED P S KUKKIDI - 28120202001</t>
+  </si>
+  <si>
+    <t>AIDED PS LUMBESU - 28120204101</t>
+  </si>
+  <si>
+    <t>AIDED PS TADIKONDA - 28120202801</t>
+  </si>
+  <si>
+    <t>GPS P JAMMUVALASA - 28120207101</t>
+  </si>
+  <si>
+    <t>GPS THOTA - 28120200301</t>
+  </si>
+  <si>
+    <t>GPSTW CHINTAMANUGUDA - 28120201203</t>
+  </si>
+  <si>
+    <t>GPSTW GEDRAJOLA - 28120211401</t>
+  </si>
+  <si>
+    <t>GPSTW ITCHAPURAM - 28120200403</t>
+  </si>
+  <si>
+    <t>GPSTW JAPAI - 28120200401</t>
+  </si>
+  <si>
+    <t>MPPS KAPPAKALLU - 28120200104</t>
+  </si>
+  <si>
+    <t>MPPS BAYYADA - 28120209801</t>
+  </si>
+  <si>
+    <t>MPPS DIGUVAMANDA - 28120210601</t>
+  </si>
+  <si>
+    <t>MPPS GORATI - 28120202401</t>
+  </si>
+  <si>
+    <t>MPPS KALLITI - 28120200502</t>
+  </si>
+  <si>
+    <t>MPPS SAVARAKOTAPADU - 28120207001</t>
+  </si>
+  <si>
+    <t>MPPS SEEMALAVALASA - 28120208802</t>
+  </si>
+  <si>
+    <t>MPPS TANKU - 28120208901</t>
   </si>
 </sst>
 </file>
@@ -157,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,24 +247,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -229,15 +270,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,26 +594,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A0E20E-40C3-43BC-A6B9-601FF420697A}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection sqref="A1:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="8" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="2:4" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -585,58 +627,256 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="D8" s="6">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
         <v>11</v>
       </c>
-      <c r="D5" s="7">
+      <c r="C14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>13</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>14</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>17</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>18</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>19</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="D23" s="11">
         <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>21</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>22</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>23</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="11">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -650,15 +890,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8229443-671B-4CC8-ABB2-97C0EC9FEDE4}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C10"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>7</v>
       </c>
@@ -692,8 +932,41 @@
       <c r="K1" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q1" s="4">
+        <v>2</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="4">
+        <v>36</v>
+      </c>
+      <c r="T1" s="4">
+        <v>0</v>
+      </c>
+      <c r="U1" s="4">
+        <v>0</v>
+      </c>
+      <c r="V1" s="4">
+        <v>0</v>
+      </c>
+      <c r="W1" s="4">
+        <v>0</v>
+      </c>
+      <c r="X1" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>8</v>
       </c>
@@ -727,8 +1000,41 @@
       <c r="K2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="4">
+        <v>3</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="4">
+        <v>25</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>11</v>
       </c>
@@ -762,8 +1068,41 @@
       <c r="K3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="4">
+        <v>5</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="4">
+        <v>23</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>46</v>
       </c>
@@ -797,8 +1136,41 @@
       <c r="K4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="4">
+        <v>6</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="4">
+        <v>53</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>82</v>
       </c>
@@ -832,8 +1204,41 @@
       <c r="K5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="4">
+        <v>8</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="4">
+        <v>446</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>99</v>
       </c>
@@ -867,8 +1272,41 @@
       <c r="K6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="4">
+        <v>30</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="4">
+        <v>43</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>109</v>
       </c>
@@ -902,8 +1340,41 @@
       <c r="K7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="4">
+        <v>36</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="4">
+        <v>34</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>137</v>
       </c>
@@ -937,8 +1408,41 @@
       <c r="K8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="4">
+        <v>46</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="4">
+        <v>49</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>155</v>
       </c>
@@ -972,8 +1476,41 @@
       <c r="K9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="4">
+        <v>70</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="4">
+        <v>4</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>157</v>
       </c>
@@ -1007,8 +1544,41 @@
       <c r="K10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="4">
+        <v>73</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="4">
+        <v>22</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>172</v>
       </c>
@@ -1030,6 +1600,447 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
+      <c r="Q11" s="4">
+        <v>75</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="4">
+        <v>4</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="4">
+        <v>76</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="4">
+        <v>7</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="4">
+        <v>99</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="4">
+        <v>8</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="4">
+        <v>115</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="4">
+        <v>23</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="4">
+        <v>118</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="4">
+        <v>29</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="4">
+        <v>126</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="4">
+        <v>49</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="17:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="4">
+        <v>134</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="4">
+        <v>33</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="17:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="4">
+        <v>137</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="4">
+        <v>48</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="17:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="4">
+        <v>140</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="4">
+        <v>33</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="17:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="4">
+        <v>157</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="4">
+        <v>9</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="17:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="4">
+        <v>159</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="4">
+        <v>35</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="17:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="4">
+        <v>160</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="4">
+        <v>37</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="17:27" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="4">
+        <v>161</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="4">
+        <v>21</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/STUDENT ATTENDANCE.xlsx
+++ b/STUDENT ATTENDANCE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0655177-9FD3-4E16-86BF-F4590364C27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8751A090-3902-46BA-B413-777626C024A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F19EF1C1-935D-4C95-840B-91A77BC1A23F}"/>
   </bookViews>
@@ -16,8 +16,9 @@
     <sheet name="PENDENCY" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
-    <sheet name="CSE SCHOOLS" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId4"/>
+    <sheet name="CSE SCHOOLS" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="attendance">'CSE SCHOOLS'!$B$4:$C$175</definedName>
@@ -26,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="370">
   <si>
     <t>APTWRSBOYS BHADRAGIRI - 28120207506</t>
   </si>
@@ -1440,121 +1441,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <border>
         <left style="thin">
@@ -1685,7 +1572,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="VASU" refreshedDate="45108.393572106484" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="78" xr:uid="{22B6850B-A3A0-4A2F-8314-A50BA29E0B28}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C3:E581" sheet="PENDENCY"/>
+    <worksheetSource ref="C3:E531" sheet="PENDENCY"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="CLUSTER" numFmtId="0">
@@ -2114,7 +2001,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCB207B1-1848-4C9B-996F-355858480223}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCB207B1-1848-4C9B-996F-355858480223}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K3:L14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -2181,26 +2068,26 @@
     <dataField name="Count of NAME OF THE SCHOOL" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="11">
+    <format dxfId="5">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="3">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -2513,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF3AA2B-5625-46F6-8C8A-7A9F20D15D42}">
-  <dimension ref="B2:L79"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F80" sqref="A1:F80"/>
+      <selection sqref="A1:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,10 +2462,10 @@
         <f>IFERROR(VLOOKUP(D4,CSESCHOOLS,3,FALSE),"")</f>
         <v>GTWAHSGIRLS REGIDI</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="8">
         <v>25</v>
       </c>
       <c r="K4" s="15" t="s">
@@ -2597,10 +2484,10 @@
         <v>GTWAHSGIRLS REGIDI</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E5" s="14">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>194</v>
@@ -2615,13 +2502,13 @@
       </c>
       <c r="C6" s="9" t="str">
         <f>IFERROR(VLOOKUP(D6,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
+        <v>GTWAS BHADRAGIRI</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="E6" s="14">
-        <v>22</v>
+        <v>390</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>201</v>
@@ -2636,13 +2523,13 @@
       </c>
       <c r="C7" s="9" t="str">
         <f>IFERROR(VLOOKUP(D7,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
+        <v>GTWAS BHADRAGIRI</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E7" s="8">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>197</v>
@@ -2657,13 +2544,13 @@
       </c>
       <c r="C8" s="9" t="str">
         <f>IFERROR(VLOOKUP(D8,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
+        <v>GTWAS DORAJAMMU</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="E8" s="8">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>230</v>
@@ -2678,13 +2565,13 @@
       </c>
       <c r="C9" s="9" t="str">
         <f>IFERROR(VLOOKUP(D9,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="8">
-        <v>56</v>
+        <v>GTWAS DORAJAMMU</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14">
+        <v>15</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>191</v>
@@ -2699,13 +2586,13 @@
       </c>
       <c r="C10" s="9" t="str">
         <f>IFERROR(VLOOKUP(D10,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="14">
-        <v>36</v>
+        <v>GTWAS DORAJAMMU</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8">
+        <v>30</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>193</v>
@@ -2720,13 +2607,13 @@
       </c>
       <c r="C11" s="9" t="str">
         <f>IFERROR(VLOOKUP(D11,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
+        <v>GTWAS DORAJAMMU</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="E11" s="14">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>188</v>
@@ -2741,13 +2628,13 @@
       </c>
       <c r="C12" s="9" t="str">
         <f>IFERROR(VLOOKUP(D12,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="14">
-        <v>73</v>
+        <v>GTWAS DUDDUKHALLU</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="8">
+        <v>12</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>210</v>
@@ -2762,13 +2649,13 @@
       </c>
       <c r="C13" s="9" t="str">
         <f>IFERROR(VLOOKUP(D13,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="8">
-        <v>48</v>
+        <v>GTWAS DUDDUKHALLU</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14">
+        <v>199</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>367</v>
@@ -2781,13 +2668,13 @@
       </c>
       <c r="C14" s="9" t="str">
         <f>IFERROR(VLOOKUP(D14,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>390</v>
+        <v>GTWAS DUDDUKHALLU</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="14">
+        <v>16</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>368</v>
@@ -2802,13 +2689,13 @@
       </c>
       <c r="C15" s="9" t="str">
         <f>IFERROR(VLOOKUP(D15,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="8">
-        <v>58</v>
+        <v>GTWAS DUDDUKHALLU</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="14">
+        <v>21</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
@@ -2819,13 +2706,13 @@
       </c>
       <c r="C16" s="9" t="str">
         <f>IFERROR(VLOOKUP(D16,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
+        <v>GTWAS KEDARIPURAM COL</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="E16" s="14">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
@@ -2836,13 +2723,13 @@
       </c>
       <c r="C17" s="9" t="str">
         <f>IFERROR(VLOOKUP(D17,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
+        <v>GTWAS KEDARIPURAM COL</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E17" s="14">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -2853,13 +2740,13 @@
       </c>
       <c r="C18" s="9" t="str">
         <f>IFERROR(VLOOKUP(D18,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
+        <v>GTWAS KOTHAGUDA</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E18" s="14">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -2870,13 +2757,13 @@
       </c>
       <c r="C19" s="9" t="str">
         <f>IFERROR(VLOOKUP(D19,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DORAJAMMU</v>
+        <v>GTWAS KOTHAGUDA</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="E19" s="14">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -2887,13 +2774,13 @@
       </c>
       <c r="C20" s="9" t="str">
         <f>IFERROR(VLOOKUP(D20,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DORAJAMMU</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="14">
-        <v>38</v>
+        <v>GTWAS KOTHAGUDA</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8">
+        <v>58</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -2904,10 +2791,10 @@
       </c>
       <c r="C21" s="9" t="str">
         <f>IFERROR(VLOOKUP(D21,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DORAJAMMU</v>
+        <v>GTWAS KOTHAGUDA</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="E21" s="8">
         <v>15</v>
@@ -2919,13 +2806,13 @@
       </c>
       <c r="C22" s="9" t="str">
         <f>IFERROR(VLOOKUP(D22,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DORAJAMMU</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="14">
-        <v>30</v>
+        <v>GTWAS KOTHAGUDA</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -2934,13 +2821,13 @@
       </c>
       <c r="C23" s="9" t="str">
         <f>IFERROR(VLOOKUP(D23,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DORAJAMMU</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="14">
-        <v>32</v>
+        <v>GTWAS TIKKABAI</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -2949,13 +2836,13 @@
       </c>
       <c r="C24" s="9" t="str">
         <f>IFERROR(VLOOKUP(D24,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DORAJAMMU</v>
+        <v>ZPHS GLPURAM</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="E24" s="14">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -2964,13 +2851,13 @@
       </c>
       <c r="C25" s="9" t="str">
         <f>IFERROR(VLOOKUP(D25,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
+        <v>ZPHS GLPURAM</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="E25" s="8">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -2979,13 +2866,13 @@
       </c>
       <c r="C26" s="9" t="str">
         <f>IFERROR(VLOOKUP(D26,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="8">
-        <v>12</v>
+        <v>ZPHS GLPURAM</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="14">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -2994,13 +2881,13 @@
       </c>
       <c r="C27" s="9" t="str">
         <f>IFERROR(VLOOKUP(D27,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="8">
-        <v>12</v>
+        <v>ZPHS GLPURAM</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="14">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -3009,13 +2896,13 @@
       </c>
       <c r="C28" s="9" t="str">
         <f>IFERROR(VLOOKUP(D28,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
+        <v>ZPHS GLPURAM</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E28" s="14">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -3024,13 +2911,13 @@
       </c>
       <c r="C29" s="9" t="str">
         <f>IFERROR(VLOOKUP(D29,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
+        <v>ZPHS GLPURAM</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E29" s="8">
-        <v>199</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -3039,754 +2926,19 @@
       </c>
       <c r="C30" s="9" t="str">
         <f>IFERROR(VLOOKUP(D30,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
+        <v>ZPHS GLPURAM</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="E30" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
-        <v>28</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D31,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="8">
-        <v>29</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D32,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="8">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
-        <v>30</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D33,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="8">
-        <v>31</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D34,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
-        <v>32</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D35,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
-        <v>33</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D36,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
-        <v>34</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D37,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
-        <v>35</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D38,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
-        <v>36</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D39,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="8">
-        <v>37</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D40,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
-        <v>38</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D41,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="14">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
-        <v>39</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D42,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="8">
-        <v>40</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D43,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="14">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="8">
-        <v>41</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D44,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="14">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="8">
-        <v>42</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D45,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="14">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="8">
-        <v>43</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D46,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="8">
-        <v>44</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D47,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" s="8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="8">
-        <v>45</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D48,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" s="8">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="8">
-        <v>46</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D49,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="14">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
-        <v>47</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D50,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E50" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="8">
-        <v>48</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D51,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" s="8">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="8">
-        <v>49</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D52,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="8">
-        <v>50</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D53,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="8">
-        <v>51</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D54,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="8">
-        <v>52</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D55,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="8">
-        <v>53</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D56,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TADIKONDA</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E56" s="14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="8">
-        <v>54</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D57,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TADIKONDA</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="8">
-        <v>55</v>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D58,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TADIKONDA</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="14">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="8">
-        <v>56</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D59,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TADIKONDA</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" s="14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="8">
-        <v>57</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D60,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TIKKABAI</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="8">
-        <v>58</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D61,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TIKKABAI</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E61" s="14">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="8">
-        <v>59</v>
-      </c>
-      <c r="C62" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D62,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TIKKABAI</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E62" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="8">
-        <v>60</v>
-      </c>
-      <c r="C63" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D63,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TIKKABAI</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" s="14">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="8">
-        <v>61</v>
-      </c>
-      <c r="C64" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D64,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TIKKABAI</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="14">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="8">
-        <v>62</v>
-      </c>
-      <c r="C65" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D65,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TIKKABAI</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="8">
-        <v>63</v>
-      </c>
-      <c r="C66" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D66,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TIKKABAI</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="8">
-        <v>64</v>
-      </c>
-      <c r="C67" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D67,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TIKKABAI</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67" s="14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="8">
-        <v>65</v>
-      </c>
-      <c r="C68" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D68,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E68" s="8">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="8">
-        <v>66</v>
-      </c>
-      <c r="C69" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D69,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E69" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="8">
-        <v>67</v>
-      </c>
-      <c r="C70" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D70,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E70" s="14">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="8">
-        <v>68</v>
-      </c>
-      <c r="C71" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D71,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="14">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="8">
-        <v>69</v>
-      </c>
-      <c r="C72" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D72,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="8">
-        <v>70</v>
-      </c>
-      <c r="C73" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D73,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" s="14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="8">
-        <v>71</v>
-      </c>
-      <c r="C74" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D74,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E74" s="14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="8">
-        <v>72</v>
-      </c>
-      <c r="C75" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D75,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E75" s="14">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="8">
-        <v>73</v>
-      </c>
-      <c r="C76" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D76,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E76" s="14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="8">
-        <v>74</v>
-      </c>
-      <c r="C77" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D77,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" s="14">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="8">
-        <v>75</v>
-      </c>
-      <c r="C78" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D78,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" s="14">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="8">
-        <v>76</v>
-      </c>
-      <c r="C79" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D79,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E79" s="14">
         <v>293</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E79">
-    <sortCondition ref="C3:C79"/>
-    <sortCondition ref="D3:D79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:E30">
+    <sortCondition ref="C4:C30"/>
+    <sortCondition ref="D4:D30"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
@@ -6862,6 +6014,955 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A418B06A-D8BB-4AB9-833E-D5E7CCB75B83}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="19">
+        <v>44</v>
+      </c>
+      <c r="D1" s="19">
+        <v>0</v>
+      </c>
+      <c r="E1" s="19">
+        <v>0</v>
+      </c>
+      <c r="F1" s="19">
+        <v>0</v>
+      </c>
+      <c r="G1" s="19">
+        <v>0</v>
+      </c>
+      <c r="H1" s="19">
+        <v>0</v>
+      </c>
+      <c r="I1" s="19">
+        <v>0</v>
+      </c>
+      <c r="J1" s="19">
+        <v>0</v>
+      </c>
+      <c r="K1" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19">
+        <v>3</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="19">
+        <v>28</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+      <c r="K2" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>8</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
+        <v>390</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="19">
+        <v>41</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>11</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="19">
+        <v>78</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>14</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="19">
+        <v>25</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>20</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19">
+        <v>61</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>22</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="19">
+        <v>37</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>25</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="19">
+        <v>46</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>34</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19">
+        <v>58</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>35</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="19">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>38</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="19">
+        <v>12</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>45</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="19">
+        <v>15</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>103</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="19">
+        <v>56</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>109</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="19">
+        <v>199</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>113</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="19">
+        <v>74</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>117</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="19">
+        <v>16</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0</v>
+      </c>
+      <c r="K17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>118</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="19">
+        <v>30</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>120</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="19">
+        <v>25</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>137</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="19">
+        <v>21</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>143</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="19">
+        <v>24</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>151</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="19">
+        <v>10</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <v>0</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>156</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="19">
+        <v>8</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>158</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="19">
+        <v>30</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="19">
+        <v>0</v>
+      </c>
+      <c r="K24" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>165</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="19">
+        <v>41</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0</v>
+      </c>
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
+        <v>169</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="19">
+        <v>68</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19">
+        <v>0</v>
+      </c>
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>171</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="19">
+        <v>293</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAA4F4E-FDBB-48D3-86BE-6DB151C821D4}">
   <dimension ref="A1:D175"/>
   <sheetViews>
@@ -9316,7 +9417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B044FE-406A-472B-BB1E-5F17277C8CFB}">
   <dimension ref="A1:C171"/>
   <sheetViews>

--- a/STUDENT ATTENDANCE.xlsx
+++ b/STUDENT ATTENDANCE.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39F9A9F-73C8-4DEA-9802-48E6554924BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F19EF1C1-935D-4C95-840B-91A77BC1A23F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="PENDENCY" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
     <definedName name="CSESCHOOLS">'CSE SCHOOLS'!$B$4:$D$175</definedName>
     <definedName name="schools">Sheet3!$A$1:$C$171</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
@@ -46,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="358">
   <si>
     <t>APTWRSBOYS BHADRAGIRI - 28120207506</t>
   </si>
@@ -1125,7 +1119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1481,9 +1475,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="VASU" refreshedDate="45108.393572106484" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="78" xr:uid="{22B6850B-A3A0-4A2F-8314-A50BA29E0B28}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="VASU" refreshedDate="45108.393572106484" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="78">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C3:E529" sheet="PENDENCY"/>
+    <worksheetSource ref="C3:E27" sheet="PENDENCY"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="CLUSTER" numFmtId="0">
@@ -1912,7 +1906,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCB207B1-1848-4C9B-996F-355858480223}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K3:L14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -2057,7 +2051,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2109,7 +2103,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2303,18 +2297,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF3AA2B-5625-46F6-8C8A-7A9F20D15D42}">
-  <dimension ref="B2:L47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:F48"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,11 +2367,11 @@
         <f>IFERROR(VLOOKUP(D4,CSESCHOOLS,3,FALSE),"")</f>
         <v>GTWAHSGIRLS REGIDI</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="8">
-        <v>25</v>
+      <c r="D4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="14">
+        <v>21</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>178</v>
@@ -2395,10 +2389,10 @@
         <v>GTWAHSGIRLS REGIDI</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E5" s="14">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>183</v>
@@ -2413,13 +2407,13 @@
       </c>
       <c r="C6" s="9" t="str">
         <f>IFERROR(VLOOKUP(D6,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
+        <v>GTWAS BHADRAGIRI</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="E6" s="14">
-        <v>39</v>
+        <v>446</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>190</v>
@@ -2434,13 +2428,13 @@
       </c>
       <c r="C7" s="9" t="str">
         <f>IFERROR(VLOOKUP(D7,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="14">
-        <v>53</v>
+        <v>GTWAS BHADRAGIRI</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="8">
+        <v>8</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>186</v>
@@ -2455,13 +2449,13 @@
       </c>
       <c r="C8" s="9" t="str">
         <f>IFERROR(VLOOKUP(D8,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAHSGIRLS REGIDI</v>
+        <v>GTWAS DORAJAMMU</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="E8" s="14">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>219</v>
@@ -2476,13 +2470,13 @@
       </c>
       <c r="C9" s="9" t="str">
         <f>IFERROR(VLOOKUP(D9,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
+        <v>GTWAS DORAJAMMU</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E9" s="14">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>180</v>
@@ -2497,13 +2491,13 @@
       </c>
       <c r="C10" s="9" t="str">
         <f>IFERROR(VLOOKUP(D10,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="14">
-        <v>25</v>
+        <v>GTWAS DORAJAMMU</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="8">
+        <v>36</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>182</v>
@@ -2518,13 +2512,13 @@
       </c>
       <c r="C11" s="9" t="str">
         <f>IFERROR(VLOOKUP(D11,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS BHADRAGIRI</v>
+        <v>GTWAS DUDDUKHALLU</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E11" s="14">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>177</v>
@@ -2539,13 +2533,13 @@
       </c>
       <c r="C12" s="9" t="str">
         <f>IFERROR(VLOOKUP(D12,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DORAJAMMU</v>
+        <v>GTWAS DUDDUKHALLU</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E12" s="14">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>199</v>
@@ -2560,13 +2554,13 @@
       </c>
       <c r="C13" s="9" t="str">
         <f>IFERROR(VLOOKUP(D13,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DORAJAMMU</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="8">
-        <v>37</v>
+        <v>GTWAS KEDARIPURAM COL</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="14">
+        <v>49</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>355</v>
@@ -2579,13 +2573,13 @@
       </c>
       <c r="C14" s="9" t="str">
         <f>IFERROR(VLOOKUP(D14,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DORAJAMMU</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="14">
-        <v>33</v>
+        <v>GTWAS KEDARIPURAM COL</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="8">
+        <v>24</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>356</v>
@@ -2600,13 +2594,13 @@
       </c>
       <c r="C15" s="9" t="str">
         <f>IFERROR(VLOOKUP(D15,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DORAJAMMU</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="14">
-        <v>25</v>
+        <v>GTWAS KOTHAGUDA</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="8">
+        <v>28</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
@@ -2617,13 +2611,13 @@
       </c>
       <c r="C16" s="9" t="str">
         <f>IFERROR(VLOOKUP(D16,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DORAJAMMU</v>
+        <v>GTWAS KOTHAGUDA</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="E16" s="14">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
@@ -2634,13 +2628,13 @@
       </c>
       <c r="C17" s="9" t="str">
         <f>IFERROR(VLOOKUP(D17,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
+        <v>GTWAS KOTHAGUDA</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E17" s="14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -2651,13 +2645,13 @@
       </c>
       <c r="C18" s="9" t="str">
         <f>IFERROR(VLOOKUP(D18,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
+        <v>GTWAS TADIKONDA</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="E18" s="14">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -2668,13 +2662,13 @@
       </c>
       <c r="C19" s="9" t="str">
         <f>IFERROR(VLOOKUP(D19,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
+        <v>GTWAS TADIKONDA</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E19" s="14">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -2685,13 +2679,13 @@
       </c>
       <c r="C20" s="9" t="str">
         <f>IFERROR(VLOOKUP(D20,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS DUDDUKHALLU</v>
+        <v>GTWAS TADIKONDA</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="E20" s="14">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -2702,13 +2696,13 @@
       </c>
       <c r="C21" s="9" t="str">
         <f>IFERROR(VLOOKUP(D21,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
+        <v>GTWAS TIKKABAI</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="E21" s="8">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -2717,13 +2711,13 @@
       </c>
       <c r="C22" s="9" t="str">
         <f>IFERROR(VLOOKUP(D22,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="8">
-        <v>40</v>
+        <v>GTWAS TIKKABAI</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="14">
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -2732,13 +2726,13 @@
       </c>
       <c r="C23" s="9" t="str">
         <f>IFERROR(VLOOKUP(D23,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
+        <v>ZPHS GLPURAM</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E23" s="14">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -2747,13 +2741,13 @@
       </c>
       <c r="C24" s="9" t="str">
         <f>IFERROR(VLOOKUP(D24,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="8">
-        <v>4</v>
+        <v>ZPHS GLPURAM</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="14">
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -2762,13 +2756,13 @@
       </c>
       <c r="C25" s="9" t="str">
         <f>IFERROR(VLOOKUP(D25,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
+        <v>ZPHS GLPURAM</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="E25" s="8">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -2777,13 +2771,13 @@
       </c>
       <c r="C26" s="9" t="str">
         <f>IFERROR(VLOOKUP(D26,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
+        <v>ZPHS GLPURAM</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E26" s="14">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -2792,319 +2786,19 @@
       </c>
       <c r="C27" s="9" t="str">
         <f>IFERROR(VLOOKUP(D27,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
+        <v>ZPHS GLPURAM</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="E27" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
-        <v>25</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D28,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="14">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
-        <v>26</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D29,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KEDARIPURAM COL</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
-        <v>27</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D30,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
-        <v>28</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D31,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="8">
-        <v>29</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D32,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" s="14">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
-        <v>30</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D33,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="8">
-        <v>31</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D34,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
-        <v>32</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D35,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS KOTHAGUDA</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
-        <v>33</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D36,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TADIKONDA</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
-        <v>34</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D37,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TADIKONDA</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
-        <v>35</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D38,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TADIKONDA</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
-        <v>36</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D39,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TADIKONDA</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="8">
-        <v>37</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D40,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TIKKABAI</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="14">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
-        <v>38</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D41,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TIKKABAI</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
-        <v>39</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D42,CSESCHOOLS,3,FALSE),"")</f>
-        <v>GTWAS TIKKABAI</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="8">
-        <v>40</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D43,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="8">
-        <v>41</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D44,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="14">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="8">
-        <v>42</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D45,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="8">
-        <v>43</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D46,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="14">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="8">
-        <v>44</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f>IFERROR(VLOOKUP(D47,CSESCHOOLS,3,FALSE),"")</f>
-        <v>ZPHS GLPURAM</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="14">
-        <v>288</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:E47">
-    <sortCondition ref="C4:C47"/>
-    <sortCondition ref="D4:D47"/>
+  <sortState ref="C4:E27">
+    <sortCondition ref="C4:C27"/>
+    <sortCondition ref="D4:D27"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
@@ -3116,7 +2810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD83324-C79F-497A-B257-1FD220AF6F2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
@@ -3993,16 +3687,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242AFD1A-DD5B-433A-BB86-D5AA329E87E3}">
-  <dimension ref="A1:K44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C44"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18">
         <v>3</v>
       </c>
@@ -4036,8 +3730,41 @@
       <c r="K1" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="18">
+        <v>3</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="18">
+        <v>28</v>
+      </c>
+      <c r="R1" s="18">
+        <v>0</v>
+      </c>
+      <c r="S1" s="18">
+        <v>0</v>
+      </c>
+      <c r="T1" s="18">
+        <v>0</v>
+      </c>
+      <c r="U1" s="18">
+        <v>0</v>
+      </c>
+      <c r="V1" s="18">
+        <v>0</v>
+      </c>
+      <c r="W1" s="18">
+        <v>0</v>
+      </c>
+      <c r="X1" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>5</v>
       </c>
@@ -4071,8 +3798,41 @@
       <c r="K2" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="18">
+        <v>6</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>57</v>
+      </c>
+      <c r="R2" s="18">
+        <v>0</v>
+      </c>
+      <c r="S2" s="18">
+        <v>0</v>
+      </c>
+      <c r="T2" s="18">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18">
+        <v>0</v>
+      </c>
+      <c r="W2" s="18">
+        <v>0</v>
+      </c>
+      <c r="X2" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>10</v>
       </c>
@@ -4106,8 +3866,41 @@
       <c r="K3" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="18">
+        <v>8</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>446</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0</v>
+      </c>
+      <c r="S3" s="18">
+        <v>0</v>
+      </c>
+      <c r="T3" s="18">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>13</v>
       </c>
@@ -4141,8 +3934,41 @@
       <c r="K4" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="18">
+        <v>10</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>40</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0</v>
+      </c>
+      <c r="S4" s="18">
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
+        <v>0</v>
+      </c>
+      <c r="U4" s="18">
+        <v>0</v>
+      </c>
+      <c r="V4" s="18">
+        <v>0</v>
+      </c>
+      <c r="W4" s="18">
+        <v>0</v>
+      </c>
+      <c r="X4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>14</v>
       </c>
@@ -4176,8 +4002,41 @@
       <c r="K5" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="18">
+        <v>11</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>82</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0</v>
+      </c>
+      <c r="S5" s="18">
+        <v>0</v>
+      </c>
+      <c r="T5" s="18">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
+      <c r="V5" s="18">
+        <v>0</v>
+      </c>
+      <c r="W5" s="18">
+        <v>0</v>
+      </c>
+      <c r="X5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>20</v>
       </c>
@@ -4211,8 +4070,41 @@
       <c r="K6" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="18">
+        <v>12</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>40</v>
+      </c>
+      <c r="R6" s="18">
+        <v>0</v>
+      </c>
+      <c r="S6" s="18">
+        <v>0</v>
+      </c>
+      <c r="T6" s="18">
+        <v>0</v>
+      </c>
+      <c r="U6" s="18">
+        <v>0</v>
+      </c>
+      <c r="V6" s="18">
+        <v>0</v>
+      </c>
+      <c r="W6" s="18">
+        <v>0</v>
+      </c>
+      <c r="X6" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>22</v>
       </c>
@@ -4246,8 +4138,41 @@
       <c r="K7" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="18">
+        <v>21</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>21</v>
+      </c>
+      <c r="R7" s="18">
+        <v>0</v>
+      </c>
+      <c r="S7" s="18">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
+        <v>0</v>
+      </c>
+      <c r="U7" s="18">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18">
+        <v>0</v>
+      </c>
+      <c r="W7" s="18">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>23</v>
       </c>
@@ -4281,8 +4206,41 @@
       <c r="K8" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="18">
+        <v>34</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>53</v>
+      </c>
+      <c r="R8" s="18">
+        <v>0</v>
+      </c>
+      <c r="S8" s="18">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <v>0</v>
+      </c>
+      <c r="V8" s="18">
+        <v>0</v>
+      </c>
+      <c r="W8" s="18">
+        <v>0</v>
+      </c>
+      <c r="X8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>24</v>
       </c>
@@ -4316,8 +4274,41 @@
       <c r="K9" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="18">
+        <v>35</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>15</v>
+      </c>
+      <c r="R9" s="18">
+        <v>0</v>
+      </c>
+      <c r="S9" s="18">
+        <v>0</v>
+      </c>
+      <c r="T9" s="18">
+        <v>0</v>
+      </c>
+      <c r="U9" s="18">
+        <v>0</v>
+      </c>
+      <c r="V9" s="18">
+        <v>0</v>
+      </c>
+      <c r="W9" s="18">
+        <v>0</v>
+      </c>
+      <c r="X9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>27</v>
       </c>
@@ -4351,8 +4342,41 @@
       <c r="K10" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="18">
+        <v>43</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>22</v>
+      </c>
+      <c r="R10" s="18">
+        <v>0</v>
+      </c>
+      <c r="S10" s="18">
+        <v>0</v>
+      </c>
+      <c r="T10" s="18">
+        <v>0</v>
+      </c>
+      <c r="U10" s="18">
+        <v>0</v>
+      </c>
+      <c r="V10" s="18">
+        <v>0</v>
+      </c>
+      <c r="W10" s="18">
+        <v>0</v>
+      </c>
+      <c r="X10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>28</v>
       </c>
@@ -4386,8 +4410,41 @@
       <c r="K11" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="18">
+        <v>46</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>49</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0</v>
+      </c>
+      <c r="S11" s="18">
+        <v>0</v>
+      </c>
+      <c r="T11" s="18">
+        <v>0</v>
+      </c>
+      <c r="U11" s="18">
+        <v>0</v>
+      </c>
+      <c r="V11" s="18">
+        <v>0</v>
+      </c>
+      <c r="W11" s="18">
+        <v>0</v>
+      </c>
+      <c r="X11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>30</v>
       </c>
@@ -4421,8 +4478,41 @@
       <c r="K12" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="18">
+        <v>50</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>6</v>
+      </c>
+      <c r="R12" s="18">
+        <v>0</v>
+      </c>
+      <c r="S12" s="18">
+        <v>0</v>
+      </c>
+      <c r="T12" s="18">
+        <v>0</v>
+      </c>
+      <c r="U12" s="18">
+        <v>0</v>
+      </c>
+      <c r="V12" s="18">
+        <v>0</v>
+      </c>
+      <c r="W12" s="18">
+        <v>0</v>
+      </c>
+      <c r="X12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>46</v>
       </c>
@@ -4456,8 +4546,41 @@
       <c r="K13" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="18">
+        <v>55</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>9</v>
+      </c>
+      <c r="R13" s="18">
+        <v>0</v>
+      </c>
+      <c r="S13" s="18">
+        <v>0</v>
+      </c>
+      <c r="T13" s="18">
+        <v>0</v>
+      </c>
+      <c r="U13" s="18">
+        <v>0</v>
+      </c>
+      <c r="V13" s="18">
+        <v>0</v>
+      </c>
+      <c r="W13" s="18">
+        <v>0</v>
+      </c>
+      <c r="X13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>47</v>
       </c>
@@ -4491,8 +4614,41 @@
       <c r="K14" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O14" s="18">
+        <v>67</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>8</v>
+      </c>
+      <c r="R14" s="18">
+        <v>0</v>
+      </c>
+      <c r="S14" s="18">
+        <v>0</v>
+      </c>
+      <c r="T14" s="18">
+        <v>0</v>
+      </c>
+      <c r="U14" s="18">
+        <v>0</v>
+      </c>
+      <c r="V14" s="18">
+        <v>0</v>
+      </c>
+      <c r="W14" s="18">
+        <v>0</v>
+      </c>
+      <c r="X14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>52</v>
       </c>
@@ -4526,8 +4682,41 @@
       <c r="K15" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="18">
+        <v>80</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>23</v>
+      </c>
+      <c r="R15" s="18">
+        <v>0</v>
+      </c>
+      <c r="S15" s="18">
+        <v>0</v>
+      </c>
+      <c r="T15" s="18">
+        <v>0</v>
+      </c>
+      <c r="U15" s="18">
+        <v>0</v>
+      </c>
+      <c r="V15" s="18">
+        <v>0</v>
+      </c>
+      <c r="W15" s="18">
+        <v>0</v>
+      </c>
+      <c r="X15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>55</v>
       </c>
@@ -4561,8 +4750,41 @@
       <c r="K16" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="18">
+        <v>111</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>454</v>
+      </c>
+      <c r="R16" s="18">
+        <v>0</v>
+      </c>
+      <c r="S16" s="18">
+        <v>0</v>
+      </c>
+      <c r="T16" s="18">
+        <v>0</v>
+      </c>
+      <c r="U16" s="18">
+        <v>0</v>
+      </c>
+      <c r="V16" s="18">
+        <v>0</v>
+      </c>
+      <c r="W16" s="18">
+        <v>0</v>
+      </c>
+      <c r="X16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>61</v>
       </c>
@@ -4596,8 +4818,41 @@
       <c r="K17" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="18">
+        <v>114</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>207</v>
+      </c>
+      <c r="R17" s="18">
+        <v>0</v>
+      </c>
+      <c r="S17" s="18">
+        <v>0</v>
+      </c>
+      <c r="T17" s="18">
+        <v>0</v>
+      </c>
+      <c r="U17" s="18">
+        <v>0</v>
+      </c>
+      <c r="V17" s="18">
+        <v>0</v>
+      </c>
+      <c r="W17" s="18">
+        <v>0</v>
+      </c>
+      <c r="X17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>67</v>
       </c>
@@ -4631,8 +4886,41 @@
       <c r="K18" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="18">
+        <v>119</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>36</v>
+      </c>
+      <c r="R18" s="18">
+        <v>0</v>
+      </c>
+      <c r="S18" s="18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="18">
+        <v>0</v>
+      </c>
+      <c r="V18" s="18">
+        <v>0</v>
+      </c>
+      <c r="W18" s="18">
+        <v>0</v>
+      </c>
+      <c r="X18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>68</v>
       </c>
@@ -4666,8 +4954,41 @@
       <c r="K19" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="18">
+        <v>124</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>8</v>
+      </c>
+      <c r="R19" s="18">
+        <v>0</v>
+      </c>
+      <c r="S19" s="18">
+        <v>0</v>
+      </c>
+      <c r="T19" s="18">
+        <v>0</v>
+      </c>
+      <c r="U19" s="18">
+        <v>0</v>
+      </c>
+      <c r="V19" s="18">
+        <v>0</v>
+      </c>
+      <c r="W19" s="18">
+        <v>0</v>
+      </c>
+      <c r="X19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>70</v>
       </c>
@@ -4701,8 +5022,41 @@
       <c r="K20" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="18">
+        <v>132</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>34</v>
+      </c>
+      <c r="R20" s="18">
+        <v>0</v>
+      </c>
+      <c r="S20" s="18">
+        <v>0</v>
+      </c>
+      <c r="T20" s="18">
+        <v>0</v>
+      </c>
+      <c r="U20" s="18">
+        <v>0</v>
+      </c>
+      <c r="V20" s="18">
+        <v>0</v>
+      </c>
+      <c r="W20" s="18">
+        <v>0</v>
+      </c>
+      <c r="X20" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>74</v>
       </c>
@@ -4736,8 +5090,41 @@
       <c r="K21" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="18">
+        <v>161</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>24</v>
+      </c>
+      <c r="R21" s="18">
+        <v>0</v>
+      </c>
+      <c r="S21" s="18">
+        <v>0</v>
+      </c>
+      <c r="T21" s="18">
+        <v>0</v>
+      </c>
+      <c r="U21" s="18">
+        <v>0</v>
+      </c>
+      <c r="V21" s="18">
+        <v>0</v>
+      </c>
+      <c r="W21" s="18">
+        <v>0</v>
+      </c>
+      <c r="X21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>95</v>
       </c>
@@ -4771,8 +5158,41 @@
       <c r="K22" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="18">
+        <v>165</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>45</v>
+      </c>
+      <c r="R22" s="18">
+        <v>0</v>
+      </c>
+      <c r="S22" s="18">
+        <v>0</v>
+      </c>
+      <c r="T22" s="18">
+        <v>0</v>
+      </c>
+      <c r="U22" s="18">
+        <v>0</v>
+      </c>
+      <c r="V22" s="18">
+        <v>0</v>
+      </c>
+      <c r="W22" s="18">
+        <v>0</v>
+      </c>
+      <c r="X22" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>99</v>
       </c>
@@ -4806,8 +5226,41 @@
       <c r="K23" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="18">
+        <v>169</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>65</v>
+      </c>
+      <c r="R23" s="18">
+        <v>0</v>
+      </c>
+      <c r="S23" s="18">
+        <v>0</v>
+      </c>
+      <c r="T23" s="18">
+        <v>0</v>
+      </c>
+      <c r="U23" s="18">
+        <v>0</v>
+      </c>
+      <c r="V23" s="18">
+        <v>0</v>
+      </c>
+      <c r="W23" s="18">
+        <v>0</v>
+      </c>
+      <c r="X23" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>102</v>
       </c>
@@ -4841,8 +5294,29 @@
       <c r="K24" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="18">
+        <v>171</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>318</v>
+      </c>
+      <c r="R24" s="18">
+        <v>0</v>
+      </c>
+      <c r="S24" s="18">
+        <v>0</v>
+      </c>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+    </row>
+    <row r="25" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>103</v>
       </c>
@@ -4877,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>109</v>
       </c>
@@ -4912,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>112</v>
       </c>
@@ -4947,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>113</v>
       </c>
@@ -4982,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>116</v>
       </c>
@@ -5017,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>120</v>
       </c>
@@ -5052,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>123</v>
       </c>
@@ -5087,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>130</v>
       </c>
@@ -5535,7 +6009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAA4F4E-FDBB-48D3-86BE-6DB151C821D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7990,7 +8464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B044FE-406A-472B-BB1E-5F17277C8CFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
